--- a/result.xlsx
+++ b/result.xlsx
@@ -47,10 +47,10 @@
     <t>30000</t>
   </si>
   <si>
+    <t>iSoft_Desktop_4.0</t>
+  </si>
+  <si>
     <t>Deepin_15</t>
-  </si>
-  <si>
-    <t>iSoft_Desktop_4.0</t>
   </si>
   <si>
     <t>测试结果分析</t>
@@ -258,7 +258,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deepin_15</c:v>
+                  <c:v>iSoft_Desktop_4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -309,7 +309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iSoft_Desktop_4.0</c:v>
+                  <c:v>Deepin_15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -321,13 +321,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.72</c:v>
+                  <c:v>50.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.51</c:v>
+                  <c:v>133.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.76</c:v>
+                  <c:v>227.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,7 +415,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deepin_15</c:v>
+                  <c:v>iSoft_Desktop_4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -459,7 +459,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iSoft_Desktop_4.0</c:v>
+                  <c:v>Deepin_15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,7 +474,7 @@
                   <c:v>2372579.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2476141.32</c:v>
+                  <c:v>9365622.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,7 +561,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deepin_15</c:v>
+                  <c:v>iSoft_Desktop_4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -605,7 +605,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iSoft_Desktop_4.0</c:v>
+                  <c:v>Deepin_15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -620,7 +620,7 @@
                   <c:v>9267.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9672.43</c:v>
+                  <c:v>36584.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,13 +1146,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>12.72</v>
+        <v>50.83</v>
       </c>
       <c r="C10" s="6">
-        <v>33.51</v>
+        <v>133.01</v>
       </c>
       <c r="D10" s="6">
-        <v>57.76</v>
+        <v>227.45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" customHeight="1"/>
@@ -1289,7 +1289,7 @@
         <v>2372579.7</v>
       </c>
       <c r="C10" s="6">
-        <v>2476141.32</v>
+        <v>9365622.63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" customHeight="1"/>
@@ -1330,7 +1330,7 @@
         <v>9267.89</v>
       </c>
       <c r="C32" s="6">
-        <v>9672.43</v>
+        <v>36584.47</v>
       </c>
     </row>
     <row r="33" ht="19" customHeight="1"/>
